--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Ptch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Ptch1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H2">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I2">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J2">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.00284447951153</v>
+        <v>7.238485666666667</v>
       </c>
       <c r="N2">
-        <v>7.00284447951153</v>
+        <v>21.715457</v>
       </c>
       <c r="O2">
-        <v>0.4217440980417459</v>
+        <v>0.4222370040411596</v>
       </c>
       <c r="P2">
-        <v>0.4217440980417459</v>
+        <v>0.4886970894137971</v>
       </c>
       <c r="Q2">
-        <v>13.09945191980483</v>
+        <v>18.80918811503345</v>
       </c>
       <c r="R2">
-        <v>13.09945191980483</v>
+        <v>169.282693035301</v>
       </c>
       <c r="S2">
-        <v>0.2302983911542721</v>
+        <v>0.2100837064484102</v>
       </c>
       <c r="T2">
-        <v>0.2302983911542721</v>
+        <v>0.2678380353712018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H3">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I3">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J3">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.2141288189185</v>
+        <v>1.274095666666667</v>
       </c>
       <c r="N3">
-        <v>1.2141288189185</v>
+        <v>3.822287</v>
       </c>
       <c r="O3">
-        <v>0.07312052482950332</v>
+        <v>0.07432084028742623</v>
       </c>
       <c r="P3">
-        <v>0.07312052482950332</v>
+        <v>0.0860189371931797</v>
       </c>
       <c r="Q3">
-        <v>2.271137412005143</v>
+        <v>3.310734616943445</v>
       </c>
       <c r="R3">
-        <v>2.271137412005143</v>
+        <v>29.796611552491</v>
       </c>
       <c r="S3">
-        <v>0.03992833404612049</v>
+        <v>0.03697827865513374</v>
       </c>
       <c r="T3">
-        <v>0.03992833404612049</v>
+        <v>0.04714401546810112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H4">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I4">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J4">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.827305055713855</v>
+        <v>1.026492666666667</v>
       </c>
       <c r="N4">
-        <v>0.827305055713855</v>
+        <v>3.079478</v>
       </c>
       <c r="O4">
-        <v>0.04982418580738691</v>
+        <v>0.05987760537255385</v>
       </c>
       <c r="P4">
-        <v>0.04982418580738691</v>
+        <v>0.06930233775479931</v>
       </c>
       <c r="Q4">
-        <v>1.547548689970484</v>
+        <v>2.667338799183778</v>
       </c>
       <c r="R4">
-        <v>1.547548689970484</v>
+        <v>24.006049192654</v>
       </c>
       <c r="S4">
-        <v>0.02720709047332522</v>
+        <v>0.02979205789527419</v>
       </c>
       <c r="T4">
-        <v>0.02720709047332522</v>
+        <v>0.03798222333008408</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H5">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I5">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J5">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.59155556310671</v>
+        <v>0.6099756666666667</v>
       </c>
       <c r="N5">
-        <v>0.59155556310671</v>
+        <v>1.829927</v>
       </c>
       <c r="O5">
-        <v>0.03562624703917727</v>
+        <v>0.03558124031624234</v>
       </c>
       <c r="P5">
-        <v>0.03562624703917727</v>
+        <v>0.04118172593557306</v>
       </c>
       <c r="Q5">
-        <v>1.106558010745648</v>
+        <v>1.585020346556778</v>
       </c>
       <c r="R5">
-        <v>1.106558010745648</v>
+        <v>14.265183119011</v>
       </c>
       <c r="S5">
-        <v>0.01945413679547222</v>
+        <v>0.01770341958219069</v>
       </c>
       <c r="T5">
-        <v>0.01945413679547222</v>
+        <v>0.02257028496120147</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H6">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I6">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J6">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.96865328725881</v>
+        <v>6.994132</v>
       </c>
       <c r="N6">
-        <v>6.96865328725881</v>
+        <v>13.988264</v>
       </c>
       <c r="O6">
-        <v>0.4196849442821867</v>
+        <v>0.407983309982618</v>
       </c>
       <c r="P6">
-        <v>0.4196849442821867</v>
+        <v>0.3147999097026509</v>
       </c>
       <c r="Q6">
-        <v>13.03549421228959</v>
+        <v>18.17423568235867</v>
       </c>
       <c r="R6">
-        <v>13.03549421228959</v>
+        <v>109.045414094152</v>
       </c>
       <c r="S6">
-        <v>0.2291739657025167</v>
+        <v>0.2029917916002549</v>
       </c>
       <c r="T6">
-        <v>0.2291739657025167</v>
+        <v>0.1725309832537122</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H7">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J7">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.00284447951153</v>
+        <v>7.238485666666667</v>
       </c>
       <c r="N7">
-        <v>7.00284447951153</v>
+        <v>21.715457</v>
       </c>
       <c r="O7">
-        <v>0.4217440980417459</v>
+        <v>0.4222370040411596</v>
       </c>
       <c r="P7">
-        <v>0.4217440980417459</v>
+        <v>0.4886970894137971</v>
       </c>
       <c r="Q7">
-        <v>1.121232694004275</v>
+        <v>6.391879621578999</v>
       </c>
       <c r="R7">
-        <v>1.121232694004275</v>
+        <v>57.526916594211</v>
       </c>
       <c r="S7">
-        <v>0.01971212895925512</v>
+        <v>0.07139222351655393</v>
       </c>
       <c r="T7">
-        <v>0.01971212895925512</v>
+        <v>0.09101873348826868</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H8">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J8">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.2141288189185</v>
+        <v>1.274095666666667</v>
       </c>
       <c r="N8">
-        <v>1.2141288189185</v>
+        <v>3.822287</v>
       </c>
       <c r="O8">
-        <v>0.07312052482950332</v>
+        <v>0.07432084028742623</v>
       </c>
       <c r="P8">
-        <v>0.07312052482950332</v>
+        <v>0.0860189371931797</v>
       </c>
       <c r="Q8">
-        <v>0.1943954246716579</v>
+        <v>1.125078711589</v>
       </c>
       <c r="R8">
-        <v>0.1943954246716579</v>
+        <v>10.125708404301</v>
       </c>
       <c r="S8">
-        <v>0.003417620357226466</v>
+        <v>0.01256623647609251</v>
       </c>
       <c r="T8">
-        <v>0.003417620357226466</v>
+        <v>0.01602083353662205</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H9">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J9">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.827305055713855</v>
+        <v>1.026492666666667</v>
       </c>
       <c r="N9">
-        <v>0.827305055713855</v>
+        <v>3.079478</v>
       </c>
       <c r="O9">
-        <v>0.04982418580738691</v>
+        <v>0.05987760537255385</v>
       </c>
       <c r="P9">
-        <v>0.04982418580738691</v>
+        <v>0.06930233775479931</v>
       </c>
       <c r="Q9">
-        <v>0.132460670673941</v>
+        <v>0.906435110866</v>
       </c>
       <c r="R9">
-        <v>0.132460670673941</v>
+        <v>8.157915997793999</v>
       </c>
       <c r="S9">
-        <v>0.002328759976690612</v>
+        <v>0.01012416094629325</v>
       </c>
       <c r="T9">
-        <v>0.002328759976690612</v>
+        <v>0.01290740449832516</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H10">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I10">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J10">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.59155556310671</v>
+        <v>0.6099756666666667</v>
       </c>
       <c r="N10">
-        <v>0.59155556310671</v>
+        <v>1.829927</v>
       </c>
       <c r="O10">
-        <v>0.03562624703917727</v>
+        <v>0.03558124031624234</v>
       </c>
       <c r="P10">
-        <v>0.03562624703917727</v>
+        <v>0.04118172593557306</v>
       </c>
       <c r="Q10">
-        <v>0.09471457485824643</v>
+        <v>0.538633522669</v>
       </c>
       <c r="R10">
-        <v>0.09471457485824643</v>
+        <v>4.847701704021</v>
       </c>
       <c r="S10">
-        <v>0.001665154721148059</v>
+        <v>0.006016109050939015</v>
       </c>
       <c r="T10">
-        <v>0.001665154721148059</v>
+        <v>0.007670003809543914</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H11">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I11">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J11">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.96865328725881</v>
+        <v>6.994132</v>
       </c>
       <c r="N11">
-        <v>6.96865328725881</v>
+        <v>13.988264</v>
       </c>
       <c r="O11">
-        <v>0.4196849442821867</v>
+        <v>0.407983309982618</v>
       </c>
       <c r="P11">
-        <v>0.4196849442821867</v>
+        <v>0.3147999097026509</v>
       </c>
       <c r="Q11">
-        <v>1.115758306744513</v>
+        <v>6.176105315412</v>
       </c>
       <c r="R11">
-        <v>1.115758306744513</v>
+        <v>37.056631892472</v>
       </c>
       <c r="S11">
-        <v>0.01961588504109755</v>
+        <v>0.06898219573020486</v>
       </c>
       <c r="T11">
-        <v>0.01961588504109755</v>
+        <v>0.05863077498113639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.39489962583334</v>
+        <v>0.255631</v>
       </c>
       <c r="H12">
-        <v>1.39489962583334</v>
+        <v>0.7668929999999999</v>
       </c>
       <c r="I12">
-        <v>0.4071985327728755</v>
+        <v>0.04894713396405228</v>
       </c>
       <c r="J12">
-        <v>0.4071985327728755</v>
+        <v>0.05391674753549563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.00284447951153</v>
+        <v>7.238485666666667</v>
       </c>
       <c r="N12">
-        <v>7.00284447951153</v>
+        <v>21.715457</v>
       </c>
       <c r="O12">
-        <v>0.4217440980417459</v>
+        <v>0.4222370040411596</v>
       </c>
       <c r="P12">
-        <v>0.4217440980417459</v>
+        <v>0.4886970894137971</v>
       </c>
       <c r="Q12">
-        <v>9.768265144239702</v>
+        <v>1.850381329455667</v>
       </c>
       <c r="R12">
-        <v>9.768265144239702</v>
+        <v>16.653431965101</v>
       </c>
       <c r="S12">
-        <v>0.1717335779282187</v>
+        <v>0.02066729120138272</v>
       </c>
       <c r="T12">
-        <v>0.1717335779282187</v>
+        <v>0.02634895759125523</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.39489962583334</v>
+        <v>0.255631</v>
       </c>
       <c r="H13">
-        <v>1.39489962583334</v>
+        <v>0.7668929999999999</v>
       </c>
       <c r="I13">
-        <v>0.4071985327728755</v>
+        <v>0.04894713396405228</v>
       </c>
       <c r="J13">
-        <v>0.4071985327728755</v>
+        <v>0.05391674753549563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.2141288189185</v>
+        <v>1.274095666666667</v>
       </c>
       <c r="N13">
-        <v>1.2141288189185</v>
+        <v>3.822287</v>
       </c>
       <c r="O13">
-        <v>0.07312052482950332</v>
+        <v>0.07432084028742623</v>
       </c>
       <c r="P13">
-        <v>0.07312052482950332</v>
+        <v>0.0860189371931797</v>
       </c>
       <c r="Q13">
-        <v>1.693587835222891</v>
+        <v>0.3256983493656667</v>
       </c>
       <c r="R13">
-        <v>1.693587835222891</v>
+        <v>2.931285144291</v>
       </c>
       <c r="S13">
-        <v>0.02977457042615637</v>
+        <v>0.003637792125869586</v>
       </c>
       <c r="T13">
-        <v>0.02977457042615637</v>
+        <v>0.004637861319916324</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.39489962583334</v>
+        <v>0.255631</v>
       </c>
       <c r="H14">
-        <v>1.39489962583334</v>
+        <v>0.7668929999999999</v>
       </c>
       <c r="I14">
-        <v>0.4071985327728755</v>
+        <v>0.04894713396405228</v>
       </c>
       <c r="J14">
-        <v>0.4071985327728755</v>
+        <v>0.05391674753549563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.827305055713855</v>
+        <v>1.026492666666667</v>
       </c>
       <c r="N14">
-        <v>0.827305055713855</v>
+        <v>3.079478</v>
       </c>
       <c r="O14">
-        <v>0.04982418580738691</v>
+        <v>0.05987760537255385</v>
       </c>
       <c r="P14">
-        <v>0.04982418580738691</v>
+        <v>0.06930233775479931</v>
       </c>
       <c r="Q14">
-        <v>1.154007512665287</v>
+        <v>0.2624033468726667</v>
       </c>
       <c r="R14">
-        <v>1.154007512665287</v>
+        <v>2.361630121854</v>
       </c>
       <c r="S14">
-        <v>0.02028833535737108</v>
+        <v>0.00293083717161705</v>
       </c>
       <c r="T14">
-        <v>0.02028833535737108</v>
+        <v>0.003736556648345161</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.39489962583334</v>
+        <v>0.255631</v>
       </c>
       <c r="H15">
-        <v>1.39489962583334</v>
+        <v>0.7668929999999999</v>
       </c>
       <c r="I15">
-        <v>0.4071985327728755</v>
+        <v>0.04894713396405228</v>
       </c>
       <c r="J15">
-        <v>0.4071985327728755</v>
+        <v>0.05391674753549563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.59155556310671</v>
+        <v>0.6099756666666667</v>
       </c>
       <c r="N15">
-        <v>0.59155556310671</v>
+        <v>1.829927</v>
       </c>
       <c r="O15">
-        <v>0.03562624703917727</v>
+        <v>0.03558124031624234</v>
       </c>
       <c r="P15">
-        <v>0.03562624703917727</v>
+        <v>0.04118172593557306</v>
       </c>
       <c r="Q15">
-        <v>0.8251606336371805</v>
+        <v>0.1559286896456667</v>
       </c>
       <c r="R15">
-        <v>0.8251606336371805</v>
+        <v>1.403358206811</v>
       </c>
       <c r="S15">
-        <v>0.01450695552255698</v>
+        <v>0.001741599736366252</v>
       </c>
       <c r="T15">
-        <v>0.01450695552255698</v>
+        <v>0.002220384720344265</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.255631</v>
+      </c>
+      <c r="H16">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J16">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.994132</v>
+      </c>
+      <c r="N16">
+        <v>13.988264</v>
+      </c>
+      <c r="O16">
+        <v>0.407983309982618</v>
+      </c>
+      <c r="P16">
+        <v>0.3147999097026509</v>
+      </c>
+      <c r="Q16">
+        <v>1.787916957292</v>
+      </c>
+      <c r="R16">
+        <v>10.727501743752</v>
+      </c>
+      <c r="S16">
+        <v>0.01996961372881667</v>
+      </c>
+      <c r="T16">
+        <v>0.01697298725563465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.123881</v>
+      </c>
+      <c r="I17">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J17">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>7.238485666666667</v>
+      </c>
+      <c r="N17">
+        <v>21.715457</v>
+      </c>
+      <c r="O17">
+        <v>0.4222370040411596</v>
+      </c>
+      <c r="P17">
+        <v>0.4886970894137971</v>
+      </c>
+      <c r="Q17">
+        <v>0.2989036142907778</v>
+      </c>
+      <c r="R17">
+        <v>2.690132528617</v>
+      </c>
+      <c r="S17">
+        <v>0.003338516196286175</v>
+      </c>
+      <c r="T17">
+        <v>0.004256311135141786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.123881</v>
+      </c>
+      <c r="I18">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J18">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.274095666666667</v>
+      </c>
+      <c r="N18">
+        <v>3.822287</v>
+      </c>
+      <c r="O18">
+        <v>0.07432084028742623</v>
+      </c>
+      <c r="P18">
+        <v>0.0860189371931797</v>
+      </c>
+      <c r="Q18">
+        <v>0.05261208176077778</v>
+      </c>
+      <c r="R18">
+        <v>0.473508735847</v>
+      </c>
+      <c r="S18">
+        <v>0.0005876352064040879</v>
+      </c>
+      <c r="T18">
+        <v>0.0007491826084897819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123881</v>
+      </c>
+      <c r="I19">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J19">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.026492666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.079478</v>
+      </c>
+      <c r="O19">
+        <v>0.05987760537255385</v>
+      </c>
+      <c r="P19">
+        <v>0.06930233775479931</v>
+      </c>
+      <c r="Q19">
+        <v>0.04238764601311111</v>
+      </c>
+      <c r="R19">
+        <v>0.381488814118</v>
+      </c>
+      <c r="S19">
+        <v>0.0004734363720324631</v>
+      </c>
+      <c r="T19">
+        <v>0.0006035892545031015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.123881</v>
+      </c>
+      <c r="I20">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J20">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.6099756666666667</v>
+      </c>
+      <c r="N20">
+        <v>1.829927</v>
+      </c>
+      <c r="O20">
+        <v>0.03558124031624234</v>
+      </c>
+      <c r="P20">
+        <v>0.04118172593557306</v>
+      </c>
+      <c r="Q20">
+        <v>0.02518813185411111</v>
+      </c>
+      <c r="R20">
+        <v>0.226693186687</v>
+      </c>
+      <c r="S20">
+        <v>0.0002813314464218446</v>
+      </c>
+      <c r="T20">
+        <v>0.0003586725651961459</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.123881</v>
+      </c>
+      <c r="I21">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J21">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>6.994132</v>
+      </c>
+      <c r="N21">
+        <v>13.988264</v>
+      </c>
+      <c r="O21">
+        <v>0.407983309982618</v>
+      </c>
+      <c r="P21">
+        <v>0.3147999097026509</v>
+      </c>
+      <c r="Q21">
+        <v>0.2888133554306667</v>
+      </c>
+      <c r="R21">
+        <v>1.732880132584</v>
+      </c>
+      <c r="S21">
+        <v>0.003225816011281285</v>
+      </c>
+      <c r="T21">
+        <v>0.002741752283845695</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.4441305</v>
+      </c>
+      <c r="H22">
+        <v>2.888261</v>
+      </c>
+      <c r="I22">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J22">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>7.238485666666667</v>
+      </c>
+      <c r="N22">
+        <v>21.715457</v>
+      </c>
+      <c r="O22">
+        <v>0.4222370040411596</v>
+      </c>
+      <c r="P22">
+        <v>0.4886970894137971</v>
+      </c>
+      <c r="Q22">
+        <v>10.45331792504617</v>
+      </c>
+      <c r="R22">
+        <v>62.719907550277</v>
+      </c>
+      <c r="S22">
+        <v>0.1167552666785266</v>
+      </c>
+      <c r="T22">
+        <v>0.09923505182792962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.4441305</v>
+      </c>
+      <c r="H23">
+        <v>2.888261</v>
+      </c>
+      <c r="I23">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J23">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.274095666666667</v>
+      </c>
+      <c r="N23">
+        <v>3.822287</v>
+      </c>
+      <c r="O23">
+        <v>0.07432084028742623</v>
+      </c>
+      <c r="P23">
+        <v>0.0860189371931797</v>
+      </c>
+      <c r="Q23">
+        <v>1.839960412151167</v>
+      </c>
+      <c r="R23">
+        <v>11.039762472907</v>
+      </c>
+      <c r="S23">
+        <v>0.02055089782392631</v>
+      </c>
+      <c r="T23">
+        <v>0.01746704426005042</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="H16">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="I16">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="J16">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>6.96865328725881</v>
-      </c>
-      <c r="N16">
-        <v>6.96865328725881</v>
-      </c>
-      <c r="O16">
-        <v>0.4196849442821867</v>
-      </c>
-      <c r="P16">
-        <v>0.4196849442821867</v>
-      </c>
-      <c r="Q16">
-        <v>9.72057186295959</v>
-      </c>
-      <c r="R16">
-        <v>9.72057186295959</v>
-      </c>
-      <c r="S16">
-        <v>0.1708950935385724</v>
-      </c>
-      <c r="T16">
-        <v>0.1708950935385724</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.4441305</v>
+      </c>
+      <c r="H24">
+        <v>2.888261</v>
+      </c>
+      <c r="I24">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J24">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.026492666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.079478</v>
+      </c>
+      <c r="O24">
+        <v>0.05987760537255385</v>
+      </c>
+      <c r="P24">
+        <v>0.06930233775479931</v>
+      </c>
+      <c r="Q24">
+        <v>1.482389367959667</v>
+      </c>
+      <c r="R24">
+        <v>8.894336207758</v>
+      </c>
+      <c r="S24">
+        <v>0.01655711298733689</v>
+      </c>
+      <c r="T24">
+        <v>0.0140725640235418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.4441305</v>
+      </c>
+      <c r="H25">
+        <v>2.888261</v>
+      </c>
+      <c r="I25">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J25">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6099756666666667</v>
+      </c>
+      <c r="N25">
+        <v>1.829927</v>
+      </c>
+      <c r="O25">
+        <v>0.03558124031624234</v>
+      </c>
+      <c r="P25">
+        <v>0.04118172593557306</v>
+      </c>
+      <c r="Q25">
+        <v>0.8808844644911666</v>
+      </c>
+      <c r="R25">
+        <v>5.285306786947</v>
+      </c>
+      <c r="S25">
+        <v>0.009838780500324544</v>
+      </c>
+      <c r="T25">
+        <v>0.008362379879287264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.4441305</v>
+      </c>
+      <c r="H26">
+        <v>2.888261</v>
+      </c>
+      <c r="I26">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J26">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.994132</v>
+      </c>
+      <c r="N26">
+        <v>13.988264</v>
+      </c>
+      <c r="O26">
+        <v>0.407983309982618</v>
+      </c>
+      <c r="P26">
+        <v>0.3147999097026509</v>
+      </c>
+      <c r="Q26">
+        <v>10.100439342226</v>
+      </c>
+      <c r="R26">
+        <v>40.401757368904</v>
+      </c>
+      <c r="S26">
+        <v>0.1128138929120603</v>
+      </c>
+      <c r="T26">
+        <v>0.06392341192832193</v>
       </c>
     </row>
   </sheetData>
